--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217741.2182537358</v>
+        <v>217778.8024294814</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800190.5120470802</v>
+        <v>815841.7831758898</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25206690.91176504</v>
+        <v>25181433.6063799</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3852551.531782349</v>
+        <v>3861031.663921094</v>
       </c>
     </row>
     <row r="11">
@@ -11303,10 +11305,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11376,22 +11378,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1300824528302</v>
@@ -25877,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H44" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I44" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>44.7678260839346</v>
       </c>
       <c r="L44" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P44" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R44" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S44" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T44" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H45" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I45" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J45" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R45" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S45" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T45" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H46" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I46" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J46" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K46" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L46" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M46" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N46" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O46" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P46" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q46" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R46" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S46" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T46" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>52885.03113620008</v>
       </c>
       <c r="P2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471514</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>17825.46125964195</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>15865.50934086002</v>
       </c>
       <c r="P4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3391.921795340066</v>
+        <v>3391.921795340058</v>
       </c>
       <c r="C6" t="n">
-        <v>3391.921795340066</v>
+        <v>3391.921795340058</v>
       </c>
       <c r="D6" t="n">
-        <v>3391.921795340066</v>
+        <v>3391.921795340058</v>
       </c>
       <c r="E6" t="n">
         <v>37019.52179534006</v>
@@ -26561,7 +26563,7 @@
         <v>37019.52179534006</v>
       </c>
       <c r="P6" t="n">
-        <v>37019.52179534006</v>
+        <v>21605.48144995487</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.76319703769629</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2.453447197126607</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.05760658163923679</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>7.353429614159418</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.8416575066333181</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217778.8024294814</v>
+        <v>78154.83113282079</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815841.7831758898</v>
+        <v>988005.7655927931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25181433.6063799</v>
+        <v>24903603.24714331</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3861031.663921094</v>
+        <v>3979972.347609788</v>
       </c>
     </row>
     <row r="11">
@@ -8698,10 +8698,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N11" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O11" t="n">
         <v>246.758517458259</v>
@@ -8771,22 +8771,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L12" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M12" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N12" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O12" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8935,10 +8935,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O14" t="n">
         <v>246.758517458259</v>
@@ -9008,22 +9008,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M15" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N15" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O15" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9172,10 +9172,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
@@ -9245,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L18" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M18" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N18" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O18" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9409,10 +9409,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N20" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O20" t="n">
         <v>246.758517458259</v>
@@ -9482,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L21" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M21" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N21" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9646,10 +9646,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N23" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9719,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9883,10 +9883,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9956,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10120,10 +10120,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10193,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10357,10 +10357,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10430,22 +10430,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10594,10 +10594,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10667,22 +10667,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10831,10 +10831,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10904,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L39" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11068,10 +11068,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11141,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O42" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -23272,22 +23272,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H11" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I11" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K11" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L11" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P11" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R11" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S11" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T11" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H12" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I12" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J12" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R12" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S12" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T12" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H13" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I13" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J13" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K13" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L13" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M13" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N13" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O13" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P13" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R13" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S13" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T13" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,22 +23509,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H14" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I14" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J14" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K14" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L14" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P14" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R14" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S14" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T14" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H15" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I15" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J15" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R15" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S15" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T15" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I16" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J16" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K16" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L16" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M16" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N16" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O16" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P16" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R16" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S16" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T16" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,22 +23746,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I17" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J17" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K17" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L17" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P17" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R17" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S17" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T17" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H18" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I18" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J18" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R18" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S18" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T18" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H19" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I19" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J19" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K19" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L19" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M19" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N19" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O19" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P19" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R19" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S19" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T19" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,22 +23983,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I20" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J20" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K20" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L20" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P20" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R20" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S20" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T20" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H21" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I21" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J21" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R21" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S21" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T21" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H22" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I22" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J22" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K22" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L22" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M22" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N22" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O22" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P22" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q22" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R22" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S22" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T22" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,22 +24220,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I23" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K23" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L23" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P23" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R23" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S23" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T23" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H24" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I24" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J24" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R24" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S24" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T24" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H25" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I25" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J25" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K25" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L25" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M25" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N25" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O25" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P25" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q25" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R25" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S25" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T25" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,22 +24457,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H26" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I26" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K26" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L26" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P26" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R26" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S26" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T26" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H27" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I27" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J27" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R27" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S27" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T27" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H28" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I28" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J28" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K28" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L28" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M28" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N28" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O28" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P28" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R28" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S28" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T28" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,22 +24694,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H29" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I29" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K29" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L29" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P29" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R29" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S29" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T29" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H30" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I30" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J30" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R30" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S30" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T30" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H31" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I31" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J31" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K31" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L31" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M31" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N31" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O31" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P31" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R31" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S31" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T31" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,22 +24931,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H32" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I32" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K32" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L32" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P32" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R32" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S32" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T32" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H33" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I33" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J33" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R33" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S33" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T33" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H34" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I34" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J34" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K34" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L34" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M34" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N34" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O34" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P34" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R34" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S34" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T34" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,22 +25168,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H35" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I35" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K35" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L35" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P35" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R35" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S35" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T35" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H36" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I36" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J36" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R36" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S36" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T36" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H37" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I37" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J37" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K37" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L37" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M37" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N37" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O37" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P37" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q37" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R37" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S37" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T37" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,22 +25405,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H38" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I38" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K38" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L38" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P38" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R38" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S38" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T38" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H39" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I39" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J39" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R39" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S39" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T39" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H40" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I40" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J40" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K40" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L40" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M40" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N40" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O40" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P40" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q40" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R40" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S40" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T40" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,22 +25642,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H41" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I41" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K41" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L41" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P41" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R41" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S41" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T41" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H42" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I42" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J42" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R42" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S42" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T42" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H43" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I43" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J43" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K43" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L43" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M43" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N43" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O43" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P43" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q43" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R43" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S43" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T43" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25891,7 +25891,7 @@
         <v>102.1633490996273</v>
       </c>
       <c r="K44" t="n">
-        <v>44.7678260839346</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>333175.6961580603</v>
+        <v>347860.5412552864</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471514</v>
       </c>
       <c r="F2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471514</v>
       </c>
       <c r="G2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471516</v>
       </c>
       <c r="H2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="I2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="J2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="K2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="L2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="M2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="N2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="O2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471515</v>
       </c>
       <c r="P2" t="n">
-        <v>55410.76167471514</v>
+        <v>55410.76167471515</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>21516.74497334658</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>17825.46125964195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,37 +26426,37 @@
         <v>15865.50934086002</v>
       </c>
       <c r="E4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="F4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="G4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="H4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="I4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="J4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="K4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="L4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="M4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="N4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="O4" t="n">
-        <v>15865.50934086002</v>
+        <v>15395.97120699573</v>
       </c>
       <c r="P4" t="n">
         <v>15395.97120699573</v>
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>583.8477581225804</v>
       </c>
       <c r="P5" t="n">
         <v>583.8477581225804</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3391.921795340058</v>
+        <v>-13412.53881250332</v>
       </c>
       <c r="C6" t="n">
-        <v>3391.921795340058</v>
+        <v>-13412.53881250332</v>
       </c>
       <c r="D6" t="n">
-        <v>3391.921795340058</v>
+        <v>-13412.53881250332</v>
       </c>
       <c r="E6" t="n">
-        <v>37019.52179534006</v>
+        <v>1362.310182258359</v>
       </c>
       <c r="F6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560494</v>
       </c>
       <c r="G6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560497</v>
       </c>
       <c r="H6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="I6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="J6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="K6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="L6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="M6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="N6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="O6" t="n">
-        <v>37019.52179534006</v>
+        <v>22879.05515560495</v>
       </c>
       <c r="P6" t="n">
-        <v>21605.48144995487</v>
+        <v>22879.05515560495</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="P3" t="n">
         <v>26.78200725332938</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,10 +34392,10 @@
         <v>11.62675572172049</v>
       </c>
       <c r="R44" t="n">
-        <v>6.76319703769629</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S44" t="n">
-        <v>2.453447197126607</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T44" t="n">
         <v>0.4713094944781883</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05760658163923679</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H45" t="n">
         <v>0.55635830162105</v>
@@ -34468,7 +34468,7 @@
         <v>11.00033048863637</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.353429614159418</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R45" t="n">
         <v>3.576661270548404</v>
@@ -34553,7 +34553,7 @@
         <v>2.171537834015854</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8416575066333181</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T46" t="n">
         <v>0.2063531706404066</v>
